--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/07,25/28,07,25 Ост СЫР филиалы/заказ СЫРЫ от 30,07,25 на 04,08,25.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/07,25/28,07,25 Ост СЫР филиалы/заказ СЫРЫ от 30,07,25 на 04,08,25.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\28,07,25 Ост СЫР филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\07,25\28,07,25 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F090638-5A5B-44C4-BDE7-596E77B2F461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8606ACEF-1C5D-4D08-876B-06860AEFA81E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -818,8 +818,8 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -1442,14 +1442,14 @@
       <c r="D24" s="14"/>
       <c r="E24" s="16"/>
       <c r="F24" s="11">
-        <f>D24/C24</f>
+        <f t="shared" ref="F24:F30" si="0">D24/C24</f>
         <v>0</v>
       </c>
       <c r="G24" s="2">
         <v>0.1</v>
       </c>
       <c r="H24" s="11">
-        <f>G24*D24</f>
+        <f t="shared" ref="H24:H30" si="1">G24*D24</f>
         <v>0</v>
       </c>
       <c r="I24" s="11"/>
@@ -1467,14 +1467,14 @@
       <c r="D25" s="14"/>
       <c r="E25" s="16"/>
       <c r="F25" s="11">
-        <f>D25/C25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G25" s="2">
         <v>0.1</v>
       </c>
       <c r="H25" s="11">
-        <f>G25*D25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I25" s="11"/>
@@ -1492,14 +1492,14 @@
       <c r="D26" s="14"/>
       <c r="E26" s="16"/>
       <c r="F26" s="11">
-        <f>D26/C26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G26" s="2">
         <v>0.1</v>
       </c>
       <c r="H26" s="11">
-        <f>G26*D26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I26" s="11"/>
@@ -1517,14 +1517,14 @@
       <c r="D27" s="14"/>
       <c r="E27" s="16"/>
       <c r="F27" s="11">
-        <f>D27/C27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G27" s="2">
         <v>0.1</v>
       </c>
       <c r="H27" s="11">
-        <f>G27*D27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I27" s="11"/>
@@ -1542,14 +1542,14 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="11">
-        <f>D28/C28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H28" s="11">
-        <f>G28*D28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I28" s="11"/>
@@ -1567,14 +1567,14 @@
       <c r="D29" s="14"/>
       <c r="E29" s="16"/>
       <c r="F29" s="11">
-        <f>D29/C29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H29" s="11">
-        <f>G29*D29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I29" s="11"/>
@@ -1592,14 +1592,14 @@
       <c r="D30" s="14"/>
       <c r="E30" s="16"/>
       <c r="F30" s="11">
-        <f>D30/C30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G30" s="2">
         <v>0.18</v>
       </c>
       <c r="H30" s="11">
-        <f>G30*D30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="11"/>
@@ -1700,14 +1700,14 @@
       <c r="D34" s="14"/>
       <c r="E34" s="16"/>
       <c r="F34" s="11">
-        <f>D34/C34</f>
+        <f t="shared" ref="F34:F39" si="2">D34/C34</f>
         <v>0</v>
       </c>
       <c r="G34" s="2">
         <v>0.4</v>
       </c>
       <c r="H34" s="11">
-        <f>G34*D34</f>
+        <f t="shared" ref="H34:H47" si="3">G34*D34</f>
         <v>0</v>
       </c>
       <c r="I34" s="11"/>
@@ -1725,14 +1725,14 @@
       <c r="D35" s="14"/>
       <c r="E35" s="16"/>
       <c r="F35" s="11">
-        <f>D35/C35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="2">
         <v>0.4</v>
       </c>
       <c r="H35" s="11">
-        <f>G35*D35</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I35" s="11"/>
@@ -1752,14 +1752,14 @@
       </c>
       <c r="E36" s="16"/>
       <c r="F36" s="11">
-        <f>D36/C36</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G36" s="2">
         <v>0.18</v>
       </c>
       <c r="H36" s="11">
-        <f>G36*D36</f>
+        <f t="shared" si="3"/>
         <v>17.28</v>
       </c>
       <c r="I36" s="11"/>
@@ -1777,14 +1777,14 @@
       <c r="D37" s="14"/>
       <c r="E37" s="16"/>
       <c r="F37" s="11">
-        <f>D37/C37</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G37" s="2">
         <v>0.18</v>
       </c>
       <c r="H37" s="11">
-        <f>G37*D37</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I37" s="11"/>
@@ -1802,14 +1802,14 @@
       <c r="D38" s="14"/>
       <c r="E38" s="16"/>
       <c r="F38" s="11">
-        <f>D38/C38</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G38" s="2">
         <v>0.18</v>
       </c>
       <c r="H38" s="11">
-        <f>G38*D38</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I38" s="11"/>
@@ -1827,14 +1827,14 @@
       <c r="D39" s="14"/>
       <c r="E39" s="16"/>
       <c r="F39" s="11">
-        <f>D39/C39</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G39" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H39" s="11">
-        <f>G39*D39</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I39" s="11"/>
@@ -1852,14 +1852,14 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="11">
-        <f t="shared" ref="F40:F45" si="0">D40/C40</f>
+        <f t="shared" ref="F40:F45" si="4">D40/C40</f>
         <v>0</v>
       </c>
       <c r="G40" s="2">
         <v>0.18</v>
       </c>
       <c r="H40" s="11">
-        <f>G40*D40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I40" s="11"/>
@@ -1877,14 +1877,14 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G41" s="2">
         <v>0.1</v>
       </c>
       <c r="H41" s="11">
-        <f>G41*D41</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I41" s="11"/>
@@ -1902,14 +1902,14 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G42" s="2">
         <v>0.1</v>
       </c>
       <c r="H42" s="11">
-        <f>G42*D42</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I42" s="11"/>
@@ -1927,14 +1927,14 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G43" s="2">
         <v>0.1</v>
       </c>
       <c r="H43" s="11">
-        <f>G43*D43</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I43" s="11"/>
@@ -1952,14 +1952,14 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G44" s="2">
         <v>0.125</v>
       </c>
       <c r="H44" s="11">
-        <f>G44*D44</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I44" s="11"/>
@@ -1977,14 +1977,14 @@
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G45" s="2">
         <v>0.125</v>
       </c>
       <c r="H45" s="11">
-        <f>G45*D45</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I45" s="11"/>
@@ -2009,7 +2009,7 @@
         <v>0.2</v>
       </c>
       <c r="H46" s="11">
-        <f>G46*D46</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I46" s="18" t="s">
@@ -2036,7 +2036,7 @@
         <v>0.8</v>
       </c>
       <c r="H47" s="11">
-        <f>G47*D47</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I47" s="18" t="s">
@@ -2082,8 +2082,8 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -2702,14 +2702,14 @@
       <c r="D24" s="14"/>
       <c r="E24" s="16"/>
       <c r="F24" s="11">
-        <f>D24/C24</f>
+        <f t="shared" ref="F24:F30" si="0">D24/C24</f>
         <v>0</v>
       </c>
       <c r="G24" s="2">
         <v>0.1</v>
       </c>
       <c r="H24" s="11">
-        <f>G24*D24</f>
+        <f t="shared" ref="H24:H30" si="1">G24*D24</f>
         <v>0</v>
       </c>
       <c r="I24" s="11"/>
@@ -2727,14 +2727,14 @@
       <c r="D25" s="14"/>
       <c r="E25" s="16"/>
       <c r="F25" s="11">
-        <f>D25/C25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G25" s="2">
         <v>0.1</v>
       </c>
       <c r="H25" s="11">
-        <f>G25*D25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I25" s="11"/>
@@ -2752,14 +2752,14 @@
       <c r="D26" s="14"/>
       <c r="E26" s="16"/>
       <c r="F26" s="11">
-        <f>D26/C26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G26" s="2">
         <v>0.1</v>
       </c>
       <c r="H26" s="11">
-        <f>G26*D26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I26" s="11"/>
@@ -2777,14 +2777,14 @@
       <c r="D27" s="14"/>
       <c r="E27" s="16"/>
       <c r="F27" s="11">
-        <f>D27/C27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G27" s="2">
         <v>0.1</v>
       </c>
       <c r="H27" s="11">
-        <f>G27*D27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I27" s="11"/>
@@ -2802,14 +2802,14 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="11">
-        <f>D28/C28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H28" s="11">
-        <f>G28*D28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I28" s="11"/>
@@ -2827,14 +2827,14 @@
       <c r="D29" s="14"/>
       <c r="E29" s="16"/>
       <c r="F29" s="11">
-        <f>D29/C29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H29" s="11">
-        <f>G29*D29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I29" s="11"/>
@@ -2854,14 +2854,14 @@
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="11">
-        <f>D30/C30</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G30" s="2">
         <v>0.18</v>
       </c>
       <c r="H30" s="11">
-        <f>G30*D30</f>
+        <f t="shared" si="1"/>
         <v>7.56</v>
       </c>
       <c r="I30" s="11"/>
@@ -2962,14 +2962,14 @@
       <c r="D34" s="14"/>
       <c r="E34" s="16"/>
       <c r="F34" s="11">
-        <f>D34/C34</f>
+        <f t="shared" ref="F34:F45" si="2">D34/C34</f>
         <v>0</v>
       </c>
       <c r="G34" s="2">
         <v>0.4</v>
       </c>
       <c r="H34" s="11">
-        <f>G34*D34</f>
+        <f t="shared" ref="H34:H47" si="3">G34*D34</f>
         <v>0</v>
       </c>
       <c r="I34" s="11"/>
@@ -2987,14 +2987,14 @@
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="11">
-        <f>D35/C35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="2">
         <v>0.4</v>
       </c>
       <c r="H35" s="11">
-        <f>G35*D35</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I35" s="11"/>
@@ -3012,14 +3012,14 @@
       <c r="D36" s="14"/>
       <c r="E36" s="16"/>
       <c r="F36" s="11">
-        <f>D36/C36</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G36" s="2">
         <v>0.18</v>
       </c>
       <c r="H36" s="11">
-        <f>G36*D36</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I36" s="11"/>
@@ -3037,14 +3037,14 @@
       <c r="D37" s="14"/>
       <c r="E37" s="16"/>
       <c r="F37" s="11">
-        <f>D37/C37</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G37" s="2">
         <v>0.18</v>
       </c>
       <c r="H37" s="11">
-        <f>G37*D37</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I37" s="11"/>
@@ -3064,14 +3064,14 @@
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="11">
-        <f>D38/C38</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G38" s="2">
         <v>0.18</v>
       </c>
       <c r="H38" s="11">
-        <f>G38*D38</f>
+        <f t="shared" si="3"/>
         <v>2.88</v>
       </c>
       <c r="I38" s="11"/>
@@ -3089,14 +3089,14 @@
       <c r="D39" s="14"/>
       <c r="E39" s="16"/>
       <c r="F39" s="11">
-        <f>D39/C39</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G39" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H39" s="11">
-        <f>G39*D39</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I39" s="11"/>
@@ -3114,14 +3114,14 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="11">
-        <f>D40/C40</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G40" s="2">
         <v>0.18</v>
       </c>
       <c r="H40" s="11">
-        <f>G40*D40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I40" s="11"/>
@@ -3139,14 +3139,14 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="11">
-        <f>D41/C41</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G41" s="2">
         <v>0.1</v>
       </c>
       <c r="H41" s="11">
-        <f>G41*D41</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I41" s="11"/>
@@ -3164,14 +3164,14 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="11">
-        <f>D42/C42</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G42" s="2">
         <v>0.1</v>
       </c>
       <c r="H42" s="11">
-        <f>G42*D42</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I42" s="11"/>
@@ -3189,14 +3189,14 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="11">
-        <f>D43/C43</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G43" s="2">
         <v>0.1</v>
       </c>
       <c r="H43" s="11">
-        <f>G43*D43</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I43" s="11"/>
@@ -3214,14 +3214,14 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="11">
-        <f>D44/C44</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G44" s="2">
         <v>0.125</v>
       </c>
       <c r="H44" s="11">
-        <f>G44*D44</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I44" s="11"/>
@@ -3239,14 +3239,14 @@
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="11">
-        <f>D45/C45</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G45" s="2">
         <v>0.125</v>
       </c>
       <c r="H45" s="11">
-        <f>G45*D45</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I45" s="11"/>
@@ -3271,7 +3271,7 @@
         <v>0.2</v>
       </c>
       <c r="H46" s="11">
-        <f>G46*D46</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I46" s="18" t="s">
@@ -3298,7 +3298,7 @@
         <v>0.8</v>
       </c>
       <c r="H47" s="11">
-        <f>G47*D47</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I47" s="18" t="s">
@@ -3338,7 +3338,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -4568,7 +4568,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
